--- a/QuanLyDuAnVer2/TestCase/TestCase_Sprint1.xlsx
+++ b/QuanLyDuAnVer2/TestCase/TestCase_Sprint1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenNhatTruong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenNhatTruong\Desktop\CNPMNC\QuanLyDuAnVer2\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D2AD1-BD0E-4F61-9984-9785BFA95A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D774D-2251-4373-8D68-E7B12EC9E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{470A387A-8C98-4FE5-8762-E085EBF415F1}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{470A387A-8C98-4FE5-8762-E085EBF415F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -57,241 +57,286 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Kiểm tra đăng nhập với thông tin hợp lệ</t>
-  </si>
-  <si>
-    <t>Người dùng phải có tài khoản hợp lệ</t>
-  </si>
-  <si>
-    <t>Nhập đúng tài khoản và mật khẩu sau đó ấn nút "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công trả về màn hình trang chủ</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng nhập với thông tin không hợp lệ</t>
-  </si>
-  <si>
-    <t>Người dùng không có tài khoản hợp lệ</t>
-  </si>
-  <si>
-    <t>Nhập sai  tài khoản hoặc mật khẩu sau đó ấn nút "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>Đăng nhập không thành công và báo lỗi</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng ký với sđt không hợp lệ</t>
-  </si>
-  <si>
-    <t>Trang web hoạt động bình thường</t>
-  </si>
-  <si>
-    <t>Người dùng lần lượt nhập đầy đủ thông tin đăng ký nhưng nhập sai định dạng số điện thoại</t>
-  </si>
-  <si>
-    <t>Báo Lỗi</t>
-  </si>
-  <si>
-    <t>Đăng ký thành công, quay về trang đăng nhập</t>
-  </si>
-  <si>
-    <t>Để trống</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng xuất</t>
-  </si>
-  <si>
-    <t>Đã đăng nhập tài khoản thành công</t>
-  </si>
-  <si>
-    <t>Ấn chọn "Đăng xuất"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng xuất tài khoản thành công </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra logic </t>
-  </si>
-  <si>
-    <t>Ấn vào logo chính của trang web ở góc trái</t>
-  </si>
-  <si>
-    <t>Trả về trang chủ của trang web</t>
-  </si>
-  <si>
-    <t>Kiểm tra chi tiết sản phẩm</t>
-  </si>
-  <si>
-    <t>Người dùng đã vào trang danh sách sản phẩm</t>
-  </si>
-  <si>
-    <t>Ấn chọn sản phẩm ở trang "Danh sách sản phẩm"</t>
-  </si>
-  <si>
-    <t>Chuyển qua trang chi tiết sản phẩm và hiển thị đầy đủ thông tin</t>
-  </si>
-  <si>
-    <t>Chưa hiển thị đầy đủ thông tin</t>
-  </si>
-  <si>
-    <t>Kiểm tra thiếu button "Quay lại trang trước"</t>
-  </si>
-  <si>
-    <t>Có nút "Quay lại" ở các trang để quay lại trang trước</t>
-  </si>
-  <si>
-    <t>Không có nút "Quay lại" ở các trang</t>
-  </si>
-  <si>
-    <t>Kiểm tra đăng ký</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng ký tài khoản </t>
-  </si>
-  <si>
-    <t>Chọn đăng ký trên website</t>
-  </si>
-  <si>
-    <t>Thông báo lỗi</t>
-  </si>
-  <si>
-    <t>Tài Khoản: nhattruong Mật khẩu: 123</t>
-  </si>
-  <si>
-    <t>Tài Khoản: nhattruong Mật khẩu: 1234</t>
-  </si>
-  <si>
-    <t>hoTen:Truong; username:truongnguyen;email:abc123@gmail.com;sdt:@;mk:123</t>
-  </si>
-  <si>
-    <t>Thực hiện zoom max trang chủ</t>
-  </si>
-  <si>
-    <t>Các thành phần trang không bị bể</t>
-  </si>
-  <si>
-    <t>Thực hiện tổ hợp phím "ctrl"+ "+"</t>
-  </si>
-  <si>
-    <t>Các thành phần trang header bị lệch vị trí</t>
-  </si>
-  <si>
-    <t>Các thành phần trang header không bị lệch</t>
-  </si>
-  <si>
-    <t>Thực hiện zoom min trang chủ</t>
-  </si>
-  <si>
-    <t>Kiểm tra logo hiển thị trên trang chủ</t>
-  </si>
-  <si>
-    <t>Không có</t>
-  </si>
-  <si>
-    <t>Mở trang chủ</t>
-  </si>
-  <si>
-    <t>Kiểm tra tiêu đề trang đăng nhập</t>
-  </si>
-  <si>
-    <t>Trang đăng nhập đã có sẵn</t>
-  </si>
-  <si>
-    <t>Mở trang đăng nhập</t>
-  </si>
-  <si>
-    <t>Tiêu đề "Đăng Nhập" xuất hiện</t>
-  </si>
-  <si>
-    <t>Kiểm tra tiêu đề trang đăng ký</t>
-  </si>
-  <si>
-    <t>Trang đăng ký đã có sẵn</t>
-  </si>
-  <si>
-    <t>Mở trang đăng ký</t>
-  </si>
-  <si>
-    <t>không có</t>
-  </si>
-  <si>
-    <t>Tiêu đề "Đăng Ký" xuất hiện</t>
-  </si>
-  <si>
-    <t>Kiểm tra các trường nhập liệu trên trang đăng nhập</t>
-  </si>
-  <si>
-    <t>Trường "Tên đăng nhập" và "Mật khẩu" hiển thị đúng</t>
-  </si>
-  <si>
-    <t>. Kiểm tra nút "Đăng Nhập"</t>
-  </si>
-  <si>
-    <t>1. Mở trang đăng nhập 2. Quan sát nút "Đăng Nhập</t>
-  </si>
-  <si>
-    <t>Nút "Đăng Nhập" hiển thị rõ ràng</t>
-  </si>
-  <si>
-    <t>Kiểm tra trường nhập email trong form đăng ký</t>
-  </si>
-  <si>
-    <t>1. Mở trang đăng ký 2. Quan sát trường "Email"</t>
-  </si>
-  <si>
-    <t>Trường email hiển thị và chấp nhận đúng định dạng email</t>
-  </si>
-  <si>
-    <t>Kiểm tra thông báo lỗi khi nhập email không hợp lệ</t>
-  </si>
-  <si>
-    <t>Người dùng nhập email sai định dạng</t>
-  </si>
-  <si>
-    <t>1. Nhập email sai định dạng 2. Bấm "Đăng Ký"</t>
-  </si>
-  <si>
-    <t>Email: abc@com</t>
-  </si>
-  <si>
-    <t>Thông báo: "Email không hợp lệ"</t>
-  </si>
-  <si>
-    <t>Kiểm tra hiển thị trường xác nhận mật khẩu</t>
-  </si>
-  <si>
-    <t>1. Mở trang đăng ký 2. Quan sát trường "Xác nhận mật khẩu"</t>
-  </si>
-  <si>
-    <t>Trường xác nhận mật khẩu xuất hiện</t>
-  </si>
-  <si>
-    <t>Kiểm tra nút "Đăng Ký"</t>
-  </si>
-  <si>
-    <t>1. Mở trang đăng ký 2. Quan sát nút "Đăng Ký"</t>
-  </si>
-  <si>
-    <t>Nút "Đăng Ký" hiển thị rõ ràng</t>
-  </si>
-  <si>
-    <t>Kiểm tra trang hiển thị khi đăng ký thành công</t>
-  </si>
-  <si>
-    <t>Người dùng hoàn thành form đăng ký</t>
-  </si>
-  <si>
-    <t>1. Điền form đăng ký 2. Bấm "Đăng Ký"</t>
-  </si>
-  <si>
-    <t>Tên: abc, Email: abc@example.com, Mật khẩu: abc123</t>
-  </si>
-  <si>
-    <t>Thông báo "Đăng ký thành công" xuất hiện</t>
-  </si>
-  <si>
-    <t>Hiển thị đúng vị trí logo trang chủ, không lệch</t>
+    <t xml:space="preserve">Hiển thị thông tin người dùng phần quản lý thông tin </t>
+  </si>
+  <si>
+    <t>1/Đăng nhập trang admin.
+2/ bấm vào quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Tên người dùng: Thuan
+Email: t@gmail.com
+Mật khẩu:123
+Địa chỉ: Bình Tân
+SĐT:0987575255
+Chức vụ: Khách hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Kiểm tra nút details phần người dùng</t>
+  </si>
+  <si>
+    <t>Dữ liệu người dùng đã được tạo.</t>
+  </si>
+  <si>
+    <t>1/Đăng nhập trang admin.
+2/ bấm vào quản lý người dùng
+3/ bấm nút details</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết danh sách thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Kiểm tra tạo sản phẩm</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào trang admin thành công</t>
+  </si>
+  <si>
+    <t>1/Đăng nhập trang admin.
+2/ bấm vào quản lý người dùng
+3/ bấm nút create</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới: 20000000
+Giá tiền cũ: 21000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/anhvongdeotay.png
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>Tạo sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới: -20000000
+Giá tiền cũ: 21000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/anhvongdeotay.png
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>Không thể tạo sản phẩm.</t>
+  </si>
+  <si>
+    <t>Không thể tạo sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới: 20000000
+Giá tiền cũ: 21000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/trangchu.html
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>Kiểm tra edit sản phẩm</t>
+  </si>
+  <si>
+    <t>1/Đăng nhập trang admin.
+2/ bấm vào quản lý người dùng
+3/ bấm nút edit</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới: 10000000
+Giá tiền cũ: 15000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/anhvongdeotay.png
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>Sửa sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới: -5000000
+Giá tiền cũ: 15000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/anhvongdeotay.png
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>Không thể sửa sản phẩm.</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới: null
+Giá tiền cũ: 15000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/anhvongdeotay.png
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>Kiểm tra Xóa sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Vòng tay vàng
+Giá tiền mới:20000000
+Giá tiền cũ: 15000000
+Mô tả: Vòng tay vàng đeo tay
+Ảnh sản phẩm: images/anhvongdeotay.png
+Vật Liệu: Vàng
+Danh mục: Vòng đeo tay
+Nhà Cung Cấp: PNG</t>
+  </si>
+  <si>
+    <t>1/Đăng nhập trang admin.
+2/ bấm vào quản lý người dùng
+3/ bấm nút xóa</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra hiển thị thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào tài khoản thành công</t>
+  </si>
+  <si>
+    <t>Hiển thị 
+Tên người dùng: Thuan
+Email: t@gmail.com
+Mật khẩu:123
+Địa chỉ: Bình Tân
+SĐT:0987575255</t>
+  </si>
+  <si>
+    <t>Kiểm tra tạo thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào tài khoản thành công và chưa tạo thông tin cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/Đăng nhập tài khoản.
+2/Bấm vào tên người dùng
+</t>
+  </si>
+  <si>
+    <t>Nhập thông tin
+Tên người dùng: Quoc
+Địa chỉ: Bình Tân
+SĐT:0987575255</t>
+  </si>
+  <si>
+    <t>Tên người dùng: Thuan
+Địa chỉ: Bình Tân
+SĐT:0987575255
+Chức vụ: Khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo thông tin cá nhân thành công</t>
+  </si>
+  <si>
+    <t>Nhập thông tin
+Tên người dùng: null
+Địa chỉ: Bình Tân
+SĐT:0987575255</t>
+  </si>
+  <si>
+    <t>Không được để trống tên người dùng, tạo không thành công</t>
+  </si>
+  <si>
+    <t>Tạo thông tin cá nhân không thành công</t>
+  </si>
+  <si>
+    <t>Nhập thông tin
+Tên người dùng: Quoc
+Địa chỉ: Bình Tân
+SĐT:098757525a</t>
+  </si>
+  <si>
+    <t>SĐT chỉ được điền các số từ 0 đến 9, tạo không thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra sửa thông tin cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/Đăng nhập tài khoản.
+2/Bấm vào tên người dùng
+3/Chọn chỉnh sửa
+</t>
+  </si>
+  <si>
+    <t>SĐT chỉ được điền các số từ 0 đến 9, chỉnh sửa không thành công</t>
+  </si>
+  <si>
+    <t>chỉnh sửa thông tin cá nhân không thành công</t>
+  </si>
+  <si>
+    <t>Nhập thông tin
+Tên người dùng: Quoc
+Địa chỉ: Bình Tân
+SĐT:012345678#</t>
+  </si>
+  <si>
+    <t>Nhập thông tin
+Tên người dùng: null
+Địa chỉ: Bình Tân
+SĐT:0123456789</t>
+  </si>
+  <si>
+    <t>Tên người dùng trống, chỉnh sửa không thành công</t>
+  </si>
+  <si>
+    <t>Kiểm tra tạo voucher</t>
+  </si>
+  <si>
+    <t>1/Đăng nhập trang admin.
+2/ bấm vào quản lý voucher
+3/ bấm nút create</t>
+  </si>
+  <si>
+    <t>Tạo voucher thành công</t>
+  </si>
+  <si>
+    <t>Tạo voucher không thành công</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Voucher vòng tay
+Giá trị: 20
+Thời gian bắt đầu 14/10/2024
+Thời gian kết thúc 15/10/2024
+Trạng thái: chưa kích hoạt
+Ngày tạo: 14/10/2024
+Điều kiện áp dụng: &gt;20000000đ
+Số lượng :10</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Voucher vòng tay
+Giá trị: 20
+Thời gian bắt đầu 14/10/2024
+Thời gian kết thúc 13/10/2024
+Trạng thái: chưa kích hoạt
+Ngày tạo: 14/10/2024
+Điều kiện áp dụng: &gt;20000000đ
+Số lượng :10</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: Voucher vòng tay
+Giá trị: -20
+Thời gian bắt đầu 14/10/2024
+Thời gian kết thúc 15/10/2024
+Trạng thái: chưa kích hoạt
+Ngày tạo: 14/10/2024
+Điều kiện áp dụng: &gt;20000000đ
+Số lượng :10</t>
   </si>
 </sst>
 </file>
@@ -400,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -437,15 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823667DF-17A2-4F7C-AE06-40054CF18DAC}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -773,7 +809,7 @@
     <col min="2" max="2" width="52.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
     <col min="6" max="7" width="54.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="2"/>
   </cols>
@@ -811,13 +847,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
@@ -842,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
@@ -853,7 +889,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -867,10 +903,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -878,423 +914,427 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>84</v>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>49</v>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>85</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>55</v>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>60</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="108" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>22</v>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
+      <c r="B15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>67</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>73</v>
+      <c r="B18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>76</v>
+      <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>79</v>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
